--- a/public/import/pengawas.xlsx
+++ b/public/import/pengawas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MASTER\Xampp\htdocs\examz\public\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7619D4-3DAE-44CB-90B5-096F3731A777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87539E40-5D70-4ECB-9B78-8983AD6A4518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10890" xr2:uid="{A0816873-F919-4E8D-9E8D-0F29877BB983}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>No</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>Kode</t>
   </si>
 </sst>
 </file>
@@ -442,72 +445,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B342AB1B-16EC-4EF7-8E2F-CB5C4EB9EFAD}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
+      <c r="B2" s="1">
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+      <c r="B3" s="1">
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
+      <c r="B4" s="1">
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
